--- a/docs/assets/docs/PlantillaEquipo.xlsx
+++ b/docs/assets/docs/PlantillaEquipo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Documents\Uni\5Curso\PDSC\Practica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CEDE3D5-A954-4F49-AD06-D61EC3E6C61C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C67EA83A-E90D-4B9E-AC8E-D727E0F541BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1452" yWindow="1032" windowWidth="14448" windowHeight="9888" firstSheet="1" activeTab="1" xr2:uid="{9A93EC1C-9D22-4C01-95B3-9BEB652FC340}"/>
+    <workbookView xWindow="28695" yWindow="0" windowWidth="14610" windowHeight="15585" firstSheet="1" activeTab="3" xr2:uid="{9A93EC1C-9D22-4C01-95B3-9BEB652FC340}"/>
   </bookViews>
   <sheets>
     <sheet name="Composicion" sheetId="1" r:id="rId1"/>
@@ -468,7 +468,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="92">
   <si>
     <t>Planificación y Diseño de Sistemas Computacionales - Curso 2025-26</t>
   </si>
@@ -662,9 +662,6 @@
     <t xml:space="preserve">Miguel Ángel Sánchez Martín </t>
   </si>
   <si>
-    <t>Migue</t>
-  </si>
-  <si>
     <t>Javier Fuentes De La Plaza</t>
   </si>
   <si>
@@ -705,6 +702,48 @@
   </si>
   <si>
     <t>Mediador</t>
+  </si>
+  <si>
+    <t>L a las 16, M a las 9, X a las 16</t>
+  </si>
+  <si>
+    <t>L a las 12, J a las 16</t>
+  </si>
+  <si>
+    <t>L-V Todos los dias</t>
+  </si>
+  <si>
+    <t>L a las 12 y J a las 16</t>
+  </si>
+  <si>
+    <t>Mucha carga lectiva por parte de otras asignaturas</t>
+  </si>
+  <si>
+    <t>Comentario</t>
+  </si>
+  <si>
+    <t>X a las 12</t>
+  </si>
+  <si>
+    <t>L a las 12, M a las 9, X a las 16</t>
+  </si>
+  <si>
+    <t>L a V todos los dias</t>
+  </si>
+  <si>
+    <t>Conseguidor</t>
+  </si>
+  <si>
+    <t>L a V todos los días</t>
+  </si>
+  <si>
+    <t>L a las 12 J a as 16</t>
+  </si>
+  <si>
+    <t>4 (defensa practica ADBD)</t>
+  </si>
+  <si>
+    <t>L a V Toda la semana</t>
   </si>
 </sst>
 </file>
@@ -947,386 +986,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1424940</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>487680</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>49530</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Pergamino: vertical 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2F0E280-01EF-4E56-A4BB-D3A3C82AA2BD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9060180" y="2004060"/>
-          <a:ext cx="4236720" cy="1703070"/>
-        </a:xfrm>
-        <a:prstGeom prst="verticalScroll">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent4">
-              <a:lumMod val="40000"/>
-              <a:lumOff val="60000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="es-ES" sz="1100"/>
-            <a:t>Esta</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
-            <a:t> tabla es para que la rellenes y la actualices tu estatus. Si quieres puedes poner aquí tu foto.</a:t>
-          </a:r>
-          <a:endParaRPr lang="es-ES" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Bocadillo: rectángulo 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7ADF27FB-E681-432C-9514-CC1849D416A4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3467100" y="2057400"/>
-          <a:ext cx="1076325" cy="466725"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -70139"/>
-            <a:gd name="adj2" fmla="val -32738"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="es-ES" sz="1100"/>
-            <a:t>A veces hay comentarios.</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>742950</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Pergamino: vertical 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F067F95-64C0-4692-B785-3090AF4CB450}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3838575" y="2762250"/>
-          <a:ext cx="1514475" cy="1771650"/>
-        </a:xfrm>
-        <a:prstGeom prst="verticalScroll">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent4">
-              <a:lumMod val="40000"/>
-              <a:lumOff val="60000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="es-ES" sz="1100"/>
-            <a:t>Esta</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
-            <a:t> tabla es para que la rellenes y la actualices tu estatus. Si quieres puedes poner aquí tu foto.</a:t>
-          </a:r>
-          <a:endParaRPr lang="es-ES" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Bocadillo: rectángulo 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31878EB3-737B-4AB1-8014-CE6C5332FDF0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5467350" y="152400"/>
-          <a:ext cx="1228725" cy="457200"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -97577"/>
-            <a:gd name="adj2" fmla="val -18750"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="es-ES" sz="1100"/>
-            <a:t>Puedes añadir Telegram,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
-            <a:t> etc...</a:t>
-          </a:r>
-          <a:endParaRPr lang="es-ES" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Bocadillo: rectángulo 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B126EF9F-9E23-47C5-8A90-668AE7479FB9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5627370" y="152400"/>
-          <a:ext cx="1251585" cy="434340"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -97577"/>
-            <a:gd name="adj2" fmla="val -18750"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="es-ES" sz="1100"/>
-            <a:t>Puedes añadir Telegram,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
-            <a:t> etc...</a:t>
-          </a:r>
-          <a:endParaRPr lang="es-ES" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1490,11 +1149,12 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{03A8C83F-2824-463C-AF48-9EF591DA9EBB}" name="Tabla6" displayName="Tabla6" ref="B21:C28" totalsRowShown="0">
-  <autoFilter ref="B21:C28" xr:uid="{3107F79E-70BC-4DC7-BBBA-B3DD236DDD55}"/>
-  <tableColumns count="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{03A8C83F-2824-463C-AF48-9EF591DA9EBB}" name="Tabla6" displayName="Tabla6" ref="B21:D28" totalsRowShown="0">
+  <autoFilter ref="B21:D28" xr:uid="{3107F79E-70BC-4DC7-BBBA-B3DD236DDD55}"/>
+  <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{88F9C2C8-F27E-4FF2-9FAF-162CCC452C9A}" name="Concepto"/>
     <tableColumn id="2" xr3:uid="{E2595703-6332-4B3D-B28D-5FBE3D6A383F}" name="Level"/>
+    <tableColumn id="3" xr3:uid="{9F469599-F45C-4B92-8833-6289664536B1}" name="Comentario"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1974,8 +1634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BB244D3-1266-43EA-B11B-0C45FD84298C}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1985,8 +1645,9 @@
     <col min="4" max="4" width="30.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.109375" customWidth="1"/>
-    <col min="7" max="7" width="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -2084,6 +1745,12 @@
       <c r="G8">
         <v>8</v>
       </c>
+      <c r="H8">
+        <v>6</v>
+      </c>
+      <c r="I8">
+        <v>20</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
@@ -2094,16 +1761,22 @@
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F9" t="s">
         <v>70</v>
       </c>
-      <c r="F9" t="s">
-        <v>71</v>
-      </c>
       <c r="G9" t="s">
-        <v>72</v>
+        <v>78</v>
+      </c>
+      <c r="H9" t="s">
+        <v>81</v>
+      </c>
+      <c r="I9" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -2115,16 +1788,22 @@
         <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -2156,7 +1835,7 @@
         <v>26</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -2165,7 +1844,7 @@
         <v>27</v>
       </c>
       <c r="C15">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -2174,10 +1853,10 @@
         <v>28</v>
       </c>
       <c r="C16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" t="s">
         <v>29</v>
@@ -2186,10 +1865,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>30</v>
       </c>
@@ -2199,8 +1878,11 @@
       <c r="C21" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>31</v>
       </c>
@@ -2208,15 +1890,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C23">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>33</v>
       </c>
@@ -2224,15 +1906,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>35</v>
       </c>
@@ -2240,20 +1922,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>36</v>
       </c>
       <c r="C27">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>37</v>
       </c>
       <c r="C28">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="D28" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2278,7 +1963,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2287,7 +1972,9 @@
     <col min="3" max="3" width="16.33203125" customWidth="1"/>
     <col min="4" max="4" width="41" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -2316,7 +2003,7 @@
         <v>63</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>52</v>
@@ -2385,6 +2072,12 @@
       <c r="G8">
         <v>8</v>
       </c>
+      <c r="H8">
+        <v>6</v>
+      </c>
+      <c r="I8">
+        <v>20</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
@@ -2400,6 +2093,18 @@
       <c r="E9" t="s">
         <v>19</v>
       </c>
+      <c r="F9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" t="s">
+        <v>85</v>
+      </c>
+      <c r="H9" t="s">
+        <v>79</v>
+      </c>
+      <c r="I9" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
@@ -2419,7 +2124,13 @@
         <v>2</v>
       </c>
       <c r="G10" t="s">
-        <v>68</v>
+        <v>67</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -2442,7 +2153,7 @@
         <v>25</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -2460,7 +2171,7 @@
         <v>27</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -2478,7 +2189,7 @@
         <v>29</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -2500,7 +2211,7 @@
         <v>31</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -2508,7 +2219,7 @@
         <v>32</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -2516,15 +2227,15 @@
         <v>33</v>
       </c>
       <c r="C22">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -2532,7 +2243,7 @@
         <v>35</v>
       </c>
       <c r="C24">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -2540,7 +2251,7 @@
         <v>36</v>
       </c>
       <c r="C25">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -2548,601 +2259,7 @@
         <v>37</v>
       </c>
       <c r="C26">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <tableParts count="4">
-    <tablePart r:id="rId3"/>
-    <tablePart r:id="rId4"/>
-    <tablePart r:id="rId5"/>
-    <tablePart r:id="rId6"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC108252-AA2D-4B95-8D83-F8F85584BF44}">
-  <dimension ref="A1:I26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="18.5546875" customWidth="1"/>
-    <col min="3" max="3" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
         <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H7" t="s">
-        <v>60</v>
-      </c>
-      <c r="I7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8">
-        <v>4</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>4</v>
-      </c>
-      <c r="G8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" t="s">
-        <v>75</v>
-      </c>
-      <c r="G9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" t="s">
-        <v>67</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
-      <c r="B15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-      <c r="B16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
-      <c r="B17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="3"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <tableParts count="4">
-    <tablePart r:id="rId3"/>
-    <tablePart r:id="rId4"/>
-    <tablePart r:id="rId5"/>
-    <tablePart r:id="rId6"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24EF22BB-BC3F-4A52-99D7-44A03302F36D}">
-  <dimension ref="A1:I26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="18.5546875" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" customWidth="1"/>
-    <col min="4" max="4" width="34.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H7" t="s">
-        <v>60</v>
-      </c>
-      <c r="I7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8">
-        <v>4</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>4</v>
-      </c>
-      <c r="G8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" t="s">
-        <v>71</v>
-      </c>
-      <c r="E9" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" t="s">
-        <v>75</v>
-      </c>
-      <c r="G9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-      <c r="E10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-      <c r="G10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14">
-        <v>4</v>
-      </c>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
-      <c r="B15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-      <c r="B16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
-      <c r="B17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="3"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -3157,16 +2274,639 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC108252-AA2D-4B95-8D83-F8F85584BF44}">
+  <dimension ref="A1:I26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="18.5546875" customWidth="1"/>
+    <col min="3" max="3" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="3"/>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
+      <c r="B3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8">
+        <v>8</v>
+      </c>
+      <c r="H8">
+        <v>6</v>
+      </c>
+      <c r="I8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9" t="s">
+        <v>71</v>
+      </c>
+      <c r="H9" t="s">
+        <v>89</v>
+      </c>
+      <c r="I9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10" t="s">
+        <v>90</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="3"/>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="3"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+  <tableParts count="4">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24EF22BB-BC3F-4A52-99D7-44A03302F36D}">
+  <dimension ref="A1:I26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="18.5546875" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="34.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="3"/>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
+      <c r="B3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8">
+        <v>8</v>
+      </c>
+      <c r="H8">
+        <v>6</v>
+      </c>
+      <c r="I8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9" t="s">
+        <v>78</v>
+      </c>
+      <c r="H9" t="s">
+        <v>79</v>
+      </c>
+      <c r="I9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="3"/>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="3"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+  <tableParts count="4">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+  </tableParts>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100F21745E6FF796E47A6089FC01F133F07" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="3593cf8fe47b17c7d0db6ed13af4072a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a6e13a8d-c1c7-414d-b285-bcfb283ba0f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c18d527fe3c0f1cd19c92702b7ea23f4" ns2:_="">
     <xsd:import namespace="a6e13a8d-c1c7-414d-b285-bcfb283ba0f9"/>
@@ -3310,21 +3050,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{908F1C3C-DDBA-449D-82AB-A153EC964032}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BB64C60-B8B9-4136-AA13-204EA5A1969E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3342,11 +3083,19 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D388EBF-39D8-4EFC-A429-9A5C0F1E04C0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{908F1C3C-DDBA-449D-82AB-A153EC964032}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/docs/assets/docs/PlantillaEquipo.xlsx
+++ b/docs/assets/docs/PlantillaEquipo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Documents\Uni\5Curso\PDSC\Practica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C67EA83A-E90D-4B9E-AC8E-D727E0F541BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F618BC-F6B2-4E50-9CF0-376D280A717E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28695" yWindow="0" windowWidth="14610" windowHeight="15585" firstSheet="1" activeTab="3" xr2:uid="{9A93EC1C-9D22-4C01-95B3-9BEB652FC340}"/>
+    <workbookView xWindow="28695" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{9A93EC1C-9D22-4C01-95B3-9BEB652FC340}"/>
   </bookViews>
   <sheets>
     <sheet name="Composicion" sheetId="1" r:id="rId1"/>
@@ -468,7 +468,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="93">
   <si>
     <t>Planificación y Diseño de Sistemas Computacionales - Curso 2025-26</t>
   </si>
@@ -744,6 +744,9 @@
   </si>
   <si>
     <t>L a V Toda la semana</t>
+  </si>
+  <si>
+    <t>Gestor MV y BD</t>
   </si>
 </sst>
 </file>
@@ -1511,8 +1514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC3925F1-F615-43DC-AFB1-4367F486D983}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C20:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1616,6 +1619,9 @@
       </c>
       <c r="D7" t="s">
         <v>54</v>
+      </c>
+      <c r="E7" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2278,7 +2284,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC108252-AA2D-4B95-8D83-F8F85584BF44}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
